--- a/design.xlsx
+++ b/design.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayf\Documents\Angel\archivos\programacion\desarrollo web\mysql\animales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PixelSiete\Desktop\angel\codigo\mysql-practices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09D157B-5EC8-496F-997E-165BBD8BE90D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EDFC79A2-1312-4BCE-9B57-745EC6133952}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>table name: habitats</t>
   </si>
@@ -78,12 +77,36 @@
   </si>
   <si>
     <t>habitat_id: foreignId</t>
+  </si>
+  <si>
+    <t>database name: for_dates</t>
+  </si>
+  <si>
+    <t>table name: comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">description: text </t>
+  </si>
+  <si>
+    <t>published_datetime: datetime</t>
+  </si>
+  <si>
+    <t>published_date: date</t>
+  </si>
+  <si>
+    <t>table name: posts</t>
+  </si>
+  <si>
+    <t>content: mediumtext</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -428,11 +451,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F1860B-9EFE-44F1-8A91-CBD9715E9A09}">
-  <dimension ref="B2:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,6 +547,51 @@
         <v>8</v>
       </c>
     </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
